--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value430.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value430.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135322082448011</v>
+        <v>1.210310339927673</v>
       </c>
       <c r="B1">
-        <v>1.984466982943923</v>
+        <v>2.516122341156006</v>
       </c>
       <c r="C1">
-        <v>2.224192309580364</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.542617367655746</v>
+        <v>1.739291548728943</v>
       </c>
       <c r="E1">
-        <v>1.121049370833331</v>
+        <v>1.162550449371338</v>
       </c>
     </row>
   </sheetData>
